--- a/src/main/resources/xlsxFileWithTestData.xlsx
+++ b/src/main/resources/xlsxFileWithTestData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="111">
   <si>
     <t xml:space="preserve">login</t>
   </si>
@@ -433,12 +433,6 @@
       </rPr>
       <t xml:space="preserve"> newPassword</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new password same as current</t>
   </si>
   <si>
     <r>
@@ -1697,10 +1691,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1883,16 +1877,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1902,11 +1893,14 @@
       <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>90</v>
+      <c r="C12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1916,39 +1910,22 @@
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>108</v>
+      <c r="C13" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D13" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="1" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1956,9 +1933,9 @@
     <hyperlink ref="B2" r:id="rId1" display="Test@1234"/>
     <hyperlink ref="B7" r:id="rId2" display="pass@1"/>
     <hyperlink ref="C7" r:id="rId3" display="pass@1"/>
-    <hyperlink ref="B12" r:id="rId4" display="Test@1234"/>
-    <hyperlink ref="B13" r:id="rId5" display="Test@1234"/>
-    <hyperlink ref="B14" r:id="rId6" display="Test@1234"/>
+    <hyperlink ref="B11" r:id="rId4" display="Test@1234"/>
+    <hyperlink ref="B12" r:id="rId5" display="Test@1234"/>
+    <hyperlink ref="B13" r:id="rId6" display="Test@1234"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
